--- a/7RMartSuperMarket/src/test/resources/testdata.xlsx
+++ b/7RMartSuperMarket/src/test/resources/testdata.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29426"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{ECC26DC5-FF17-444F-94FC-7921AD8A7CEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{38039AD8-137B-421C-9793-96A0B489B2C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Loginpage" sheetId="1" r:id="rId1"/>
@@ -13,14 +13,15 @@
     <sheet name="Adminuserpage" sheetId="3" r:id="rId3"/>
     <sheet name="ManageNews" sheetId="4" r:id="rId4"/>
     <sheet name="ManageCategory" sheetId="5" r:id="rId5"/>
+    <sheet name="Adminsearch" sheetId="8" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:Q15"/>
+  <oleSize ref="A1:Q27"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="5">
   <si>
     <t>username</t>
   </si>
@@ -378,7 +379,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -559,4 +560,39 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5868E52B-6D00-4AB6-87C8-A0619B5AB2E9}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/7RMartSuperMarket/src/test/resources/testdata.xlsx
+++ b/7RMartSuperMarket/src/test/resources/testdata.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29426"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{38039AD8-137B-421C-9793-96A0B489B2C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{E9B49CF5-B0C3-4D29-BA67-A5F5A3279034}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Loginpage" sheetId="1" r:id="rId1"/>
@@ -13,15 +13,14 @@
     <sheet name="Adminuserpage" sheetId="3" r:id="rId3"/>
     <sheet name="ManageNews" sheetId="4" r:id="rId4"/>
     <sheet name="ManageCategory" sheetId="5" r:id="rId5"/>
-    <sheet name="Adminsearch" sheetId="8" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:Q27"/>
+  <oleSize ref="A1:V27"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="5">
   <si>
     <t>username</t>
   </si>
@@ -531,7 +530,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -560,39 +559,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5868E52B-6D00-4AB6-87C8-A0619B5AB2E9}">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="2" width="18.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>